--- a/data/long_razon/P23_10-Edad-long_razon.xlsx
+++ b/data/long_razon/P23_10-Edad-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-47,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-13,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-19,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>38,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-35,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-73,91; 0,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-51,92; 47,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-53,98; 37,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,01; 156,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-57,15; -3,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-28,11; 57,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-25,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-13,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-17,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-6,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-21,73%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-43,28; 85,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-67,92; 34,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-44,85; 42,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-45,89; 31,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,29; 37,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,8; 18,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-26,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-17,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-15,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,45%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-51,1; 12,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-50,8; 24,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-31,31; 41,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,92; 62,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-35,92; 13,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-30,35; 21,77</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-7,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-23,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>50,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-8,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,54; 38,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,89; 5,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-34,31; 28,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,23; 99,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,87; 17,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,81; 34,82</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -921,32 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-31,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>22,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>26,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-8,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-7,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-54,22; 4,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 84,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,38; 92,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-37,01; 35,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-30,03; 29,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,5; 42,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>39,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-11,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-34,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-34,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-6,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-22,85%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-22,84; 135,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-42,1; 40,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-60,36; 3,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-60,02; 5,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-36,08; 32,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,9; 6,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-15,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-13,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-10,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-13,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,23%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1119,47 +1564,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-30,95; 1,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-28,62; 3,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-23,8; 7,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 22,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-23,24; -1,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 8,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P23_10-Edad-long_razon.xlsx
+++ b/data/long_razon/P23_10-Edad-long_razon.xlsx
@@ -659,18 +659,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.4955229544244224</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.0661565754379369</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.2602863981256584</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.3443130364115779</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.2447959409545234</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.2967925613121823</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.1222904065655085</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.6381851492358489</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.3849999980568512</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.08123883356248236</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.08018098090364689</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>-0.1608389914538535</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -679,18 +703,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.7330074008826256</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.4616613583250627</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.7009291543899491</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.4170885799820027</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.5703547556857677</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.2295654439950424</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.4085920840230946</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.881236160103232</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.5982876005142398</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.2959223525317395</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.4456836510236629</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.5127451710484497</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -699,18 +747,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>-0.08600896171394708</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.8467609122232138</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.8411886566325869</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.006300340220654</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.3233037117969517</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.191365195284986</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.104267251118721</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>-0.1586581054850142</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>-0.09367937457748295</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.5874674935158904</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.5095000177913875</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.5529872680361351</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,18 +795,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.02500258314562884</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.2468412835350668</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.700894709698267</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.3096577439657964</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.09605138888599729</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.1673310455691615</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.1109933958677151</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.1734162803607664</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.03539711875616602</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-0.211325741630591</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.8133549518454265</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>-0.08440700252456164</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -743,18 +839,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.4169522372620268</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.6832044840677322</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.3406485760130308</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.7955946680277199</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.4451046867847606</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.4473477059907917</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.5489100109908992</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.3377690129669838</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.3246397763855779</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.4992986738490006</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>0.06125956020769973</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.4506362004081073</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -763,18 +883,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.9066972473856828</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.3919915272179076</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.088886948895786</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.9225195449898517</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.4702305442578102</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.2776832759519102</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.6226410724475747</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>1.031627281821512</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.3951528602746781</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.1971381969664745</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>2.166210844584094</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.6750420807241062</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -787,18 +931,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.2437597676865597</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.1491739357906455</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.2316999477340045</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.20150269124964</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.01007310695627292</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.1162971342914686</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.09213509261687831</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.4240810769673141</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.139182534388285</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>-0.04035279081455857</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.1786836668344238</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.1891211881816199</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -807,18 +975,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.4960789405687868</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.4816853490711742</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.5196292832979476</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2964141526268192</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.3324922876897987</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.1931365698429905</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.4326670154890548</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.6547139754580158</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.347911382217335</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.2885315332303781</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.3948823350247483</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.1407020768130376</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -827,18 +1019,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.1834643751973269</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.2610477528435203</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.1275264304294783</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.982641268821902</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.4279866451597179</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.6484240595108107</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.364442753673915</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>-0.01650197497932395</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.1525154602912334</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.2737668105561517</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.1006294888689047</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.6581404213464299</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -851,18 +1067,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.0971170822050709</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.2174148887804943</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1840921116442111</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.2056748269508983</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.03286376681793187</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.505957581716133</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.2090189336750689</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.07415890573128571</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.06481400097329199</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.09153878213359479</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.04781976729442425</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>-0.1553468753510545</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -871,18 +1111,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.3835188839889916</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.4676904713636615</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.231678277350128</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.5174810917583262</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.3274008111876305</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.1256619174768653</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.423034134137488</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.4240196913539303</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.2787214407666873</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.1350274780424242</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.2649515525638784</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.3892977483833722</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -891,18 +1155,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.332731925418733</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.1084543505744764</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.117367685924043</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.3056050032202567</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.2986703248274372</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1.046557618097827</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.0638015532366796</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.4759672291379508</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.1919230637980849</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.4007488801977344</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.3140543714074022</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.1925599555114073</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -915,18 +1203,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>-0.3438536715194488</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.2106182693535198</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.2761891702256957</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-0.1156409302857551</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.2578959913999395</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-0.06825858848552956</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.2339656260764983</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.3317308688568368</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>-0.0939674669559047</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0.05884752352339778</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>0.2549461062269415</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>0.09746838698226384</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -935,18 +1247,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.5577529705952533</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.184198759407752</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.1808700525300381</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.4784055871426491</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.1901087191914907</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.3748064807603057</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>-0.2157347631732434</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.1301946409712899</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.3259529622322533</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.2216150396460554</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.1037700522349268</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>-0.1987998075542066</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -955,18 +1291,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>0.009274803351411533</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.785308458933729</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>1.209979024047357</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.3746487265784465</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.9455397172957132</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0.3752949271231525</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>0.9339570782104921</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>0.9664773869967125</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.2320997030445479</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.3810785538023362</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>0.7279799352100904</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>0.4474825049458651</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -979,18 +1339,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>0.4111178125518389</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.1343621697186058</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-0.08953026224000095</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.2161114136995281</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>-0.3042733398571936</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>-0.4074043351467471</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0.6583975688488334</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>0.2982911069140501</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>-0.030269834181235</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>-0.2740446139409281</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>0.2463144833045676</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>0.2583648775926895</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -999,18 +1383,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.1815731306323142</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.4641307900180972</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.5032882213691298</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.3445168584416444</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.5915226916373624</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.6375255530723281</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.14109541233874</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.4535216447387238</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.3265954453374841</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.4782367791747444</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-0.1768694260954126</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.2079026252608991</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1019,18 +1427,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>1.426775369092839</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0.2876343378058915</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0.6528397474706228</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>1.379207869665912</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.075312687100939</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>-0.02501390366569475</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>1.955578531421208</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>2.040459163965038</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>0.3925297809698678</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>-0.003045803026128465</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>0.9308064892790233</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>1.1466945240173</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1043,18 +1475,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>-0.1562834518801308</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.1248420000027768</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1711484071837795</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1086516091429717</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-0.08968084547283833</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>0.02570465466947794</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.06283152390819571</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>-0.07946891996955044</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>-0.1237683020969646</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>-0.05625271155770022</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>0.1188574526574173</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.016315289457323</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1063,18 +1519,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.3026311313433525</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.2930363673702355</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.06242091785385677</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.1272972499829998</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-0.2394756996052466</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.1204416917628766</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>-0.1240995719456075</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.2612996731346072</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>-0.22978071898492</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>-0.1669949514535445</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>-0.05877235632576021</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>-0.1375101779825202</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1083,18 +1563,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>0.02186714996691718</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.05428149933803789</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.5966121159168177</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.41028743655401</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.070766907486492</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.2198620228816548</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.2815958718887038</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.1510969181847233</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>-0.006080938794437064</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.0720497985536673</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>0.3380754682501618</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.2066503206696486</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
